--- a/biology/Botanique/Trichomanes_holopterum/Trichomanes_holopterum.xlsx
+++ b/biology/Botanique/Trichomanes_holopterum/Trichomanes_holopterum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichomanes holopterum est une espèce de fougères de la famille des Hyménophyllacées.
 Synonymes : Ptilophyllum holopterum (Kunze) Prantl, Trichomanes bancroftii var. holopterum  (Kunze) Christ
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichomanes holopterum est classé dans le sous-genre Trichomanes.
 Cette espèce a les caractéristiques suivantes :
@@ -524,7 +538,7 @@
 l'indusie est tubulaire ;
 chaque sore porte une longue columelle foncée (de deux à trois fois la longueur de l'indusie).
 Elle compte une variété : Trichomanes holopterum var. lherminieri (Fée) Domin (1929) - (Synonyme : Trichomanes lherminieri Fée).
-Cette espèce, comme Vandenboschia speciosa, d'une part est tétraphoïde au stade sporophyte (4n = 128 chromosomes) et d'autre part peut se développer au stade gamétophyte (prothalle) sans évoluer vers le stade sporophyte, cette forme végétative étant même dominante (comme chez les Bryophytes)[1]
+Cette espèce, comme Vandenboschia speciosa, d'une part est tétraphoïde au stade sporophyte (4n = 128 chromosomes) et d'autre part peut se développer au stade gamétophyte (prothalle) sans évoluer vers le stade sporophyte, cette forme végétative étant même dominante (comme chez les Bryophytes)
 </t>
         </is>
       </c>
@@ -553,7 +567,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, principalement terrestre, est présente en Amérique tropicale, dont la Guyane. Sa variété lehrminieri est présente aux Antilles.
 </t>
